--- a/Files/Sample_VM_Template.xlsx
+++ b/Files/Sample_VM_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AR Automation\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD7D94F0-42DE-436E-B12A-CF7235238DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB137BD-E4B8-4726-9130-39115FD8A03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="2220" windowWidth="14400" windowHeight="7270" xr2:uid="{A60FC1EC-BC31-4D47-BB04-2A7CFC0B6198}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A60FC1EC-BC31-4D47-BB04-2A7CFC0B6198}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>AppName</t>
   </si>
@@ -144,60 +144,6 @@
   </si>
   <si>
     <t>InstanceType</t>
-  </si>
-  <si>
-    <t>FERY</t>
-  </si>
-  <si>
-    <t>PROD</t>
-  </si>
-  <si>
-    <t>FERY_01</t>
-  </si>
-  <si>
-    <t>App Server</t>
-  </si>
-  <si>
-    <t>Critical</t>
-  </si>
-  <si>
-    <t>LSU</t>
-  </si>
-  <si>
-    <t>1099PRO</t>
-  </si>
-  <si>
-    <t>VMWareVMInstance</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>VMWare Inc,</t>
-  </si>
-  <si>
-    <t>VMware vCenter Server</t>
-  </si>
-  <si>
-    <t>64-bit</t>
-  </si>
-  <si>
-    <t>Microsoft Windows Server 2012 (64-bit)</t>
-  </si>
-  <si>
-    <t>Windows</t>
-  </si>
-  <si>
-    <t>FREY</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>Rehost</t>
-  </si>
-  <si>
-    <t>t3a.large</t>
   </si>
 </sst>
 </file>
@@ -590,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24D8517-C91E-441D-A0D1-E9BB157C927E}">
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AJ1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -745,98 +691,6 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2">
-        <v>3072</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="O2">
-        <v>4096</v>
-      </c>
-      <c r="P2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R2" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2" t="s">
-        <v>47</v>
-      </c>
-      <c r="U2">
-        <v>2</v>
-      </c>
-      <c r="V2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z2">
-        <v>30</v>
-      </c>
-      <c r="AA2">
-        <v>2</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>53</v>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="H1">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
